--- a/DestroyViruses/Assets/Tables/TableBuffAutoGen.xlsx
+++ b/DestroyViruses/Assets/Tables/TableBuffAutoGen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24560" windowHeight="8360"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -82,22 +82,19 @@
     <t>5~12</t>
   </si>
   <si>
-    <t>[(8,1),(9,1),(10,1)]</t>
+    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,1),(9,1),(10,1)]</t>
   </si>
   <si>
     <t>0~4</t>
   </si>
   <si>
-    <t>0~5</t>
-  </si>
-  <si>
-    <t>0~6</t>
-  </si>
-  <si>
-    <t>0~7</t>
-  </si>
-  <si>
-    <t>0~8</t>
+    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,2),(9,2),(10,2)]</t>
+  </si>
+  <si>
+    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,3),(9,3),(10,3)]</t>
+  </si>
+  <si>
+    <t>4~10</t>
   </si>
 </sst>
 </file>
@@ -105,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -126,14 +123,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,23 +167,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,82 +250,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -268,6 +257,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -278,187 +275,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,60 +474,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,11 +495,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,151 +540,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -730,54 +727,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1073,21 +1070,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.2307692307692" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.7115384615385" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.3846153846154" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.3846153846154" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.2333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7083333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="62.3833333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.3833333333333" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1187,7 +1184,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -1209,7 +1206,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="3">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
@@ -1231,7 +1228,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="3">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>14</v>
@@ -1253,7 +1250,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="3">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
@@ -1273,7 +1270,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="3">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>14</v>
@@ -1295,7 +1292,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="3">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>14</v>
@@ -1317,7 +1314,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>21</v>
@@ -1339,7 +1336,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="3">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>21</v>
@@ -1361,13 +1358,13 @@
         <v>13</v>
       </c>
       <c r="C13" s="3">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1383,13 +1380,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="3">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1405,13 +1402,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="3">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1427,13 +1424,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="3">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1555,7 +1552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1563,7 +1560,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1571,7 +1568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1579,7 +1576,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableBuffAutoGen.xlsx
+++ b/DestroyViruses/Assets/Tables/TableBuffAutoGen.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -61,40 +61,49 @@
     <t>0~1000</t>
   </si>
   <si>
-    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1)]</t>
+    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,1),(9,1),(10,1)]</t>
   </si>
   <si>
     <t>0~3</t>
   </si>
   <si>
+    <t>[(1,2),(2,1),(3,2),(4,1),(5,2),(6,1),(8,1),(9,1),(10,1)]</t>
+  </si>
+  <si>
+    <t>[(1,1),(2,2),(3,2),(4,2),(5,1),(6,1),(8,1),(9,1),(10,1)]</t>
+  </si>
+  <si>
     <t>1~5</t>
   </si>
   <si>
-    <t>2~7</t>
-  </si>
-  <si>
-    <t>3~8</t>
-  </si>
-  <si>
-    <t>4~11</t>
-  </si>
-  <si>
-    <t>5~12</t>
-  </si>
-  <si>
-    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,1),(9,1),(10,1)]</t>
+    <t>[(1,1),(2,2),(3,2),(4,1),(5,1),(6,1)]</t>
+  </si>
+  <si>
+    <t>2~6</t>
+  </si>
+  <si>
+    <t>3~6</t>
+  </si>
+  <si>
+    <t>[(1,2),(2,2),(3,2),(4,1),(5,1),(6,1)]</t>
+  </si>
+  <si>
+    <t>4~6</t>
+  </si>
+  <si>
+    <t>5~6</t>
+  </si>
+  <si>
+    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,3),(9,3),(10,3)]</t>
   </si>
   <si>
     <t>0~4</t>
   </si>
   <si>
-    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,2),(9,2),(10,2)]</t>
-  </si>
-  <si>
-    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,3),(9,3),(10,3)]</t>
-  </si>
-  <si>
-    <t>4~10</t>
+    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,4),(9,4),(10,4)]</t>
+  </si>
+  <si>
+    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,5),(9,5),(10,5)]</t>
   </si>
 </sst>
 </file>
@@ -103,8 +112,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -123,12 +132,72 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -136,25 +205,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,101 +260,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,187 +284,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,39 +475,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -517,6 +493,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -528,15 +533,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,11 +554,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,7 +593,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,124 +602,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,7 +1084,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1187,7 +1196,7 @@
         <v>-1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>15</v>
@@ -1209,10 +1218,10 @@
         <v>-2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1231,10 +1240,10 @@
         <v>-3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1253,10 +1262,10 @@
         <v>-4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1273,10 +1282,10 @@
         <v>-5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1295,10 +1304,10 @@
         <v>-6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1317,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>15</v>
@@ -1339,10 +1348,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1361,10 +1370,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1383,10 +1392,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1405,10 +1414,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1427,10 +1436,10 @@
         <v>6</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>

--- a/DestroyViruses/Assets/Tables/TableBuffAutoGen.xlsx
+++ b/DestroyViruses/Assets/Tables/TableBuffAutoGen.xlsx
@@ -94,7 +94,7 @@
     <t>5~6</t>
   </si>
   <si>
-    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,3),(9,3),(10,3)]</t>
+    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,2),(9,2),(10,2)]</t>
   </si>
   <si>
     <t>0~4</t>
@@ -111,8 +111,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -131,13 +131,37 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -147,90 +171,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +185,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -252,24 +268,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,19 +284,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,163 +452,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +475,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -513,15 +528,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -555,23 +561,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,34 +593,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,97 +626,100 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/DestroyViruses/Assets/Tables/TableBuffAutoGen.xlsx
+++ b/DestroyViruses/Assets/Tables/TableBuffAutoGen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -64,46 +64,85 @@
     <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,1),(9,1),(10,1)]</t>
   </si>
   <si>
-    <t>0~3</t>
-  </si>
-  <si>
-    <t>[(1,2),(2,1),(3,2),(4,1),(5,2),(6,1),(8,1),(9,1),(10,1)]</t>
-  </si>
-  <si>
-    <t>[(1,1),(2,2),(3,2),(4,2),(5,1),(6,1),(8,1),(9,1),(10,1)]</t>
-  </si>
-  <si>
-    <t>1~5</t>
-  </si>
-  <si>
-    <t>[(1,1),(2,2),(3,2),(4,1),(5,1),(6,1)]</t>
-  </si>
-  <si>
-    <t>2~6</t>
+    <t>0~1</t>
+  </si>
+  <si>
+    <t>[(1,2),(2,1),(3,1),(4,1),(5,2),(6,1),(8,1),(9,1),(10,1)]</t>
+  </si>
+  <si>
+    <t>[(1,3),(2,2),(3,2),(4,3),(5,3),(6,3),(8,3),(9,3),(10,3)]</t>
+  </si>
+  <si>
+    <t>1~3</t>
+  </si>
+  <si>
+    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1)]</t>
+  </si>
+  <si>
+    <t>2~3</t>
+  </si>
+  <si>
+    <t>3~4</t>
+  </si>
+  <si>
+    <t>[(1,2),(2,1),(3,1),(4,1),(5,1),(6,1)]</t>
+  </si>
+  <si>
+    <t>2~5</t>
+  </si>
+  <si>
+    <t>[(1,2),(2,2),(3,2),(4,1),(5,1),(6,1)]</t>
+  </si>
+  <si>
+    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,2),(9,2),(10,2)]</t>
+  </si>
+  <si>
+    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,4),(9,4),(10,4)]</t>
+  </si>
+  <si>
+    <t>2~4</t>
+  </si>
+  <si>
+    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,5),(9,5),(10,5)]</t>
+  </si>
+  <si>
+    <t>4~5</t>
+  </si>
+  <si>
+    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,5),(9,5),(10,6)]</t>
+  </si>
+  <si>
+    <t>5~6</t>
+  </si>
+  <si>
+    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,5),(9,5),(10,7)]</t>
+  </si>
+  <si>
+    <t>6~7</t>
+  </si>
+  <si>
+    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,5),(9,5),(10,8)]</t>
+  </si>
+  <si>
+    <t>7~8</t>
+  </si>
+  <si>
+    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,5),(9,5),(10,9)]</t>
+  </si>
+  <si>
+    <t>8~9</t>
   </si>
   <si>
     <t>3~6</t>
   </si>
   <si>
-    <t>[(1,2),(2,2),(3,2),(4,1),(5,1),(6,1)]</t>
-  </si>
-  <si>
-    <t>4~6</t>
-  </si>
-  <si>
-    <t>5~6</t>
-  </si>
-  <si>
-    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,2),(9,2),(10,2)]</t>
-  </si>
-  <si>
-    <t>0~4</t>
-  </si>
-  <si>
-    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,4),(9,4),(10,4)]</t>
-  </si>
-  <si>
-    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,5),(9,5),(10,5)]</t>
+    <t>4~7</t>
+  </si>
+  <si>
+    <t>5~7</t>
+  </si>
+  <si>
+    <t>7~9</t>
   </si>
 </sst>
 </file>
@@ -112,8 +151,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -131,6 +170,65 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -139,13 +237,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -154,6 +245,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -162,21 +269,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -185,56 +277,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,7 +300,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,21 +313,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -284,187 +323,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,16 +518,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,26 +543,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,16 +563,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +632,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1083,8 +1122,8 @@
   <sheetPr/>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1304,10 +1343,10 @@
         <v>-6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1351,7 +1390,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1370,7 +1409,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>18</v>
@@ -1392,10 +1431,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1439,7 +1478,7 @@
         <v>28</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1447,90 +1486,198 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="3:10">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="3:10">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="3:10">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="3:10">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="3:10">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3">
+        <v>-6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="3:10">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3">
+        <v>-7</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="3:10">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3">
+        <v>-8</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="3:10">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3">
+        <v>-9</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="3:10">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="3">
+        <v>-10</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>

--- a/DestroyViruses/Assets/Tables/TableBuffAutoGen.xlsx
+++ b/DestroyViruses/Assets/Tables/TableBuffAutoGen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="25200" windowHeight="10280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>id</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>buffCount</t>
+  </si>
+  <si>
+    <t>vipBuffTypePriority</t>
+  </si>
+  <si>
+    <t>vipBuffCount</t>
   </si>
   <si>
     <t>int</t>
@@ -67,15 +73,24 @@
     <t>0~1</t>
   </si>
   <si>
+    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,2),(9,2),(10,2)]</t>
+  </si>
+  <si>
     <t>[(1,2),(2,1),(3,1),(4,1),(5,2),(6,1),(8,1),(9,1),(10,1)]</t>
   </si>
   <si>
+    <t>[(1,2),(2,1),(3,1),(4,1),(5,2),(6,1),(8,2),(9,2),(10,2)]</t>
+  </si>
+  <si>
     <t>[(1,3),(2,2),(3,2),(4,3),(5,3),(6,3),(8,3),(9,3),(10,3)]</t>
   </si>
   <si>
     <t>1~3</t>
   </si>
   <si>
+    <t>[(1,3),(2,2),(3,2),(4,3),(5,3),(6,3),(8,2),(9,2),(10,2)]</t>
+  </si>
+  <si>
     <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1)]</t>
   </si>
   <si>
@@ -94,55 +109,22 @@
     <t>[(1,2),(2,2),(3,2),(4,1),(5,1),(6,1)]</t>
   </si>
   <si>
-    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,2),(9,2),(10,2)]</t>
-  </si>
-  <si>
     <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,4),(9,4),(10,4)]</t>
   </si>
   <si>
+    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,7),(9,7),(10,7)]</t>
+  </si>
+  <si>
     <t>2~4</t>
   </si>
   <si>
     <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,5),(9,5),(10,5)]</t>
   </si>
   <si>
+    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,9),(9,9),(10,9)]</t>
+  </si>
+  <si>
     <t>4~5</t>
-  </si>
-  <si>
-    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,5),(9,5),(10,6)]</t>
-  </si>
-  <si>
-    <t>5~6</t>
-  </si>
-  <si>
-    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,5),(9,5),(10,7)]</t>
-  </si>
-  <si>
-    <t>6~7</t>
-  </si>
-  <si>
-    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,5),(9,5),(10,8)]</t>
-  </si>
-  <si>
-    <t>7~8</t>
-  </si>
-  <si>
-    <t>[(1,1),(2,1),(3,1),(4,1),(5,1),(6,1),(8,5),(9,5),(10,9)]</t>
-  </si>
-  <si>
-    <t>8~9</t>
-  </si>
-  <si>
-    <t>3~6</t>
-  </si>
-  <si>
-    <t>4~7</t>
-  </si>
-  <si>
-    <t>5~7</t>
-  </si>
-  <si>
-    <t>7~9</t>
   </si>
 </sst>
 </file>
@@ -151,9 +133,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -171,99 +153,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,8 +204,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,15 +227,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,6 +250,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -323,31 +305,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,55 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,37 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,49 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,17 +499,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,17 +532,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,11 +571,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,169 +596,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -775,54 +757,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1118,22 +1100,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.2333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.7083333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.3833333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.3833333333333" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="13.2307692307692" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7115384615385" style="2" customWidth="1"/>
+    <col min="4" max="4" width="62.3846153846154" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.3846153846154" style="2" customWidth="1"/>
+    <col min="6" max="6" width="62.3846153846154" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.3846153846154" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1152,52 +1136,64 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -1207,19 +1203,23 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1229,19 +1229,23 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3">
         <v>-1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1251,19 +1255,23 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3">
         <v>-2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1273,19 +1281,23 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3">
         <v>-3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1295,19 +1307,23 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3">
         <v>-4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:10">
@@ -1315,19 +1331,23 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3">
         <v>-5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1337,19 +1357,23 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3">
         <v>-6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1359,19 +1383,23 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1381,19 +1409,23 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1403,19 +1435,23 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1425,19 +1461,23 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1447,19 +1487,23 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3">
         <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1469,236 +1513,44 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3">
         <v>6</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3">
-        <v>7</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>31</v>
-      </c>
+    <row r="17" spans="3:10">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="3">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>33</v>
-      </c>
+    <row r="18" spans="4:6">
+      <c r="D18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="2">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="3">
-        <v>9</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>35</v>
-      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="2">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="3">
-        <v>10</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="2">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="3">
-        <v>-6</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="2">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="3">
-        <v>-7</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="2">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="3">
-        <v>-8</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="2">
-        <v>21</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="3">
-        <v>-9</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="2">
-        <v>22</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="3">
-        <v>-10</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="3:10">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="4:4">
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="4:4">
-      <c r="D28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1708,7 +1560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1716,7 +1568,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1724,7 +1576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1732,7 +1584,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableBuffAutoGen.xlsx
+++ b/DestroyViruses/Assets/Tables/TableBuffAutoGen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="10280"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -133,9 +133,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -153,44 +153,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,34 +212,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,45 +229,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,187 +305,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,20 +499,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,17 +529,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,7 +542,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,6 +571,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -585,162 +596,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -757,54 +757,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1100,23 +1100,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B4" sqref="B4:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.2307692307692" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.7115384615385" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.3846153846154" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.3846153846154" style="2" customWidth="1"/>
-    <col min="6" max="6" width="62.3846153846154" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.3846153846154" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.2333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7083333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="62.3833333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.3833333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="62.3833333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.3833333333333" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1534,7 +1534,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="3:10">
+    <row r="17" s="2" customFormat="1" spans="3:10">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1544,9 +1544,15 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="4:6">
+    <row r="18" s="2" customFormat="1" spans="3:10">
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="4:6">
       <c r="D19" s="3"/>
@@ -1560,7 +1566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1568,7 +1574,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1576,7 +1582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1584,7 +1590,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableBuffAutoGen.xlsx
+++ b/DestroyViruses/Assets/Tables/TableBuffAutoGen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="25200" windowHeight="10280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>id</t>
   </si>
@@ -133,9 +133,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -153,6 +153,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -166,15 +173,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,35 +227,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,12 +252,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -243,8 +280,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,45 +290,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,187 +305,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,17 +499,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,11 +532,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,16 +551,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,17 +571,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -596,151 +585,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -757,54 +757,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1100,23 +1100,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.2333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.7083333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.3833333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.3833333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="62.3833333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.3833333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.2307692307692" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7115384615385" style="2" customWidth="1"/>
+    <col min="4" max="4" width="62.3846153846154" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.3846153846154" style="2" customWidth="1"/>
+    <col min="6" max="6" width="62.3846153846154" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.3846153846154" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1534,7 +1534,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="3:10">
+    <row r="17" spans="3:10">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1544,15 +1544,9 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" s="2" customFormat="1" spans="3:10">
-      <c r="C18" s="3"/>
+    <row r="18" spans="4:6">
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="4:6">
       <c r="D19" s="3"/>
@@ -1566,7 +1560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1574,7 +1568,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1582,7 +1576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1590,7 +1584,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
